--- a/General/kitoverview.xlsx
+++ b/General/kitoverview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Documents/GitHub/pxlairquality/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FD3CD6-CFB3-7A40-BACA-366576ABE992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2101EC2-457C-D448-805F-EA7D89FAAAD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B0169337-3EF1-F748-9E1A-A60F2C0BC03A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{B0169337-3EF1-F748-9E1A-A60F2C0BC03A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="39">
   <si>
     <t>Kit 1</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>o = niet aanwezig in kit</t>
+  </si>
+  <si>
+    <t>Gesoldeert</t>
   </si>
 </sst>
 </file>
@@ -270,7 +273,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -282,13 +285,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -426,6 +422,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -737,7 +734,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -827,7 +823,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12678B7B-82CF-5B40-BA40-93601DE84A2C}" name="Table1" displayName="Table1" ref="B4:M29" totalsRowShown="0" headerRowDxfId="16" dataDxfId="17" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12678B7B-82CF-5B40-BA40-93601DE84A2C}" name="Table1" displayName="Table1" ref="B4:M29" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="B4:M29" xr:uid="{A613D4FA-519C-8440-9CDC-B3BDD3C7E822}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -843,18 +839,18 @@
     <filterColumn colId="11" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{01638316-D64D-5046-999D-0AABFBB7695B}" name="Onderdeel" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{EA45CFCB-DBAD-834A-BD32-C0CE65F9628C}" name="Aantal" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{09C2054D-0D1B-8541-BA06-0CEB5E2A2A00}" name="Kit 1" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{4E806F15-D9A2-3A49-A47A-B8BD7FF9DA18}" name="Kit 2" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{4F63F643-4888-B44D-B9ED-99C73357D741}" name="Kit 3" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{DB7B7986-94B6-4044-993B-CEC1A6BE0999}" name="Kit 4" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{7AF15E91-A631-3546-94E0-54DD65D43029}" name="Kit 5" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{D7D11966-56A9-4A43-A0B5-0A06857309D5}" name="Kit 6" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{3D5AEFAF-CEA0-414C-9F19-85029D1BB3B6}" name="Kit 7" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{94A5489E-A1D2-434A-A11D-D9672D52D431}" name="Kit 8" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{FA62B0F3-AB1C-504E-9572-F1A581130404}" name="Kit 9" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{3E15F8D8-EBFB-044C-8081-0C0ADAE2EC10}" name="Kit 10" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{01638316-D64D-5046-999D-0AABFBB7695B}" name="Onderdeel" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{EA45CFCB-DBAD-834A-BD32-C0CE65F9628C}" name="Aantal" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{09C2054D-0D1B-8541-BA06-0CEB5E2A2A00}" name="Kit 1" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{4E806F15-D9A2-3A49-A47A-B8BD7FF9DA18}" name="Kit 2" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{4F63F643-4888-B44D-B9ED-99C73357D741}" name="Kit 3" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{DB7B7986-94B6-4044-993B-CEC1A6BE0999}" name="Kit 4" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{7AF15E91-A631-3546-94E0-54DD65D43029}" name="Kit 5" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{D7D11966-56A9-4A43-A0B5-0A06857309D5}" name="Kit 6" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{3D5AEFAF-CEA0-414C-9F19-85029D1BB3B6}" name="Kit 7" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{94A5489E-A1D2-434A-A11D-D9672D52D431}" name="Kit 8" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{FA62B0F3-AB1C-504E-9572-F1A581130404}" name="Kit 9" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{3E15F8D8-EBFB-044C-8081-0C0ADAE2EC10}" name="Kit 10" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1160,7 +1156,7 @@
   <dimension ref="B1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2043,7 +2039,7 @@
         <v>30</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>30</v>
@@ -2059,18 +2055,40 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="8"/>
@@ -2102,7 +2120,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D5:M29">
+  <conditionalFormatting sqref="D29:M29 D28:I28 K28:M28 D5:M27">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",D5)))</formula>
     </cfRule>
